--- a/Опросный лист ОЖ. Станции.xlsx
+++ b/Опросный лист ОЖ. Станции.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs-ptg\ART_SCADA_ADMS\Team14\Опросники\ОЛ с валидацией данных\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geg\Documents\Script's\OZ_creator-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9000" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Категории событий" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Условия объектов категорий'!$A$3:$C$54</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1666,7 +1666,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1873,6 +1873,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2400,7 +2406,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2549,6 +2555,9 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2563,9 +2572,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2623,6 +2629,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4249,8 +4258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4262,20 +4271,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>438</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -4292,10 +4301,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
-        <v>1</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="60">
+        <v>1</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="12">
@@ -4306,28 +4315,28 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="12">
         <v>2</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="85" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="12">
         <v>3</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="85" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="12">
         <v>4</v>
       </c>
@@ -4336,8 +4345,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="12">
         <v>5</v>
       </c>
@@ -4346,8 +4355,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="12">
         <v>6</v>
       </c>
@@ -4356,8 +4365,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="12">
         <v>7</v>
       </c>
@@ -4366,8 +4375,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="12">
         <v>8</v>
       </c>
@@ -4376,10 +4385,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="65">
+      <c r="A12" s="60">
         <v>2</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="60" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="12">
@@ -4390,8 +4399,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="12">
         <v>2</v>
       </c>
@@ -4414,10 +4423,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="65">
+      <c r="A15" s="60">
         <v>4</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="60" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="12">
@@ -4428,8 +4437,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="12">
         <v>2</v>
       </c>
@@ -4438,8 +4447,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="12">
         <v>3</v>
       </c>
@@ -4448,8 +4457,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="12">
         <v>4</v>
       </c>
@@ -4458,8 +4467,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="12">
         <v>5</v>
       </c>
@@ -4468,8 +4477,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="12">
         <v>6</v>
       </c>
@@ -4478,8 +4487,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="12">
         <v>7</v>
       </c>
@@ -4488,8 +4497,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="12">
         <v>8</v>
       </c>
@@ -4498,10 +4507,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="65">
+      <c r="A23" s="60">
         <v>5</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="60" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="12">
@@ -4512,8 +4521,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="12">
         <v>2</v>
       </c>
@@ -4522,8 +4531,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="12">
         <v>3</v>
       </c>
@@ -4532,8 +4541,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="12">
         <v>4</v>
       </c>
@@ -4542,8 +4551,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="12">
         <v>5</v>
       </c>
@@ -4552,8 +4561,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="12">
         <v>6</v>
       </c>
@@ -4562,8 +4571,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="12">
         <v>7</v>
       </c>
@@ -4572,8 +4581,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="12">
         <v>8</v>
       </c>
@@ -4582,8 +4591,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="12">
         <v>9</v>
       </c>
@@ -4592,10 +4601,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="65">
+      <c r="A32" s="60">
         <v>6</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="60" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="12">
@@ -4606,8 +4615,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="12">
         <v>2</v>
       </c>
@@ -4616,8 +4625,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="12">
         <v>3</v>
       </c>
@@ -4626,8 +4635,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="12">
         <v>4</v>
       </c>
@@ -4636,8 +4645,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="12">
         <v>5</v>
       </c>
@@ -4646,8 +4655,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="12">
         <v>6</v>
       </c>
@@ -4656,8 +4665,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="12">
         <v>7</v>
       </c>
@@ -4666,8 +4675,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="12">
         <v>8</v>
       </c>
@@ -4676,8 +4685,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="12">
         <v>9</v>
       </c>
@@ -4686,8 +4695,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="12">
         <v>10</v>
       </c>
@@ -4696,8 +4705,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="12">
         <v>11</v>
       </c>
@@ -4706,8 +4715,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="12">
         <v>12</v>
       </c>
@@ -4716,8 +4725,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="12">
         <v>13</v>
       </c>
@@ -4726,8 +4735,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="12">
         <v>14</v>
       </c>
@@ -4736,8 +4745,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="12">
         <v>15</v>
       </c>
@@ -4746,10 +4755,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="65">
+      <c r="A47" s="60">
         <v>7</v>
       </c>
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="60" t="s">
         <v>398</v>
       </c>
       <c r="C47" s="12">
@@ -4760,8 +4769,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="12">
         <v>2</v>
       </c>
@@ -4770,8 +4779,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="12">
         <v>3</v>
       </c>
@@ -4780,8 +4789,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="12">
         <v>4</v>
       </c>
@@ -4790,8 +4799,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="12">
         <v>5</v>
       </c>
@@ -4800,8 +4809,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
       <c r="C52" s="12">
         <v>6</v>
       </c>
@@ -4810,8 +4819,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="12">
         <v>7</v>
       </c>
@@ -4820,8 +4829,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
       <c r="C54" s="12">
         <v>8</v>
       </c>
@@ -4830,8 +4839,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="12">
         <v>9</v>
       </c>
@@ -4840,8 +4849,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="60"/>
       <c r="C56" s="12">
         <v>10</v>
       </c>
@@ -4850,8 +4859,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
-      <c r="B57" s="65"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="12">
         <v>11</v>
       </c>
@@ -4860,8 +4869,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="65"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="12">
         <v>12</v>
       </c>
@@ -4870,8 +4879,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="B59" s="65"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
       <c r="C59" s="12">
         <v>13</v>
       </c>
@@ -4880,8 +4889,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
-      <c r="B60" s="65"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="60"/>
       <c r="C60" s="12">
         <v>14</v>
       </c>
@@ -4890,8 +4899,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="12">
         <v>15</v>
       </c>
@@ -4900,8 +4909,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
-      <c r="B62" s="65"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="12">
         <v>16</v>
       </c>
@@ -4911,6 +4920,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="B32:B46"/>
     <mergeCell ref="A47:A62"/>
     <mergeCell ref="B47:B62"/>
     <mergeCell ref="A4:A11"/>
@@ -4919,12 +4934,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="B15:B22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="B32:B46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4948,11 +4957,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>439</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11219,7 +11228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/Опросный лист ОЖ. Станции.xlsx
+++ b/Опросный лист ОЖ. Станции.xlsx
@@ -2406,7 +2406,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2555,8 +2555,8 @@
     <xf numFmtId="0" fontId="16" fillId="34" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2572,6 +2572,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2630,7 +2633,7 @@
     <xf numFmtId="0" fontId="27" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4259,7 +4262,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4301,10 +4304,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="60">
-        <v>1</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="66">
+        <v>1</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="12">
@@ -4315,28 +4318,28 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="12">
         <v>2</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="60" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="12">
         <v>3</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="86" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="12">
         <v>4</v>
       </c>
@@ -4345,8 +4348,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="12">
         <v>5</v>
       </c>
@@ -4355,8 +4358,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="12">
         <v>6</v>
       </c>
@@ -4365,8 +4368,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="12">
         <v>7</v>
       </c>
@@ -4375,8 +4378,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="12">
         <v>8</v>
       </c>
@@ -4385,10 +4388,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="60">
+      <c r="A12" s="66">
         <v>2</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="66" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="12">
@@ -4399,8 +4402,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="12">
         <v>2</v>
       </c>
@@ -4423,10 +4426,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="60">
+      <c r="A15" s="66">
         <v>4</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="66" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="12">
@@ -4437,8 +4440,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="12">
         <v>2</v>
       </c>
@@ -4447,8 +4450,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="12">
         <v>3</v>
       </c>
@@ -4457,8 +4460,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="12">
         <v>4</v>
       </c>
@@ -4467,8 +4470,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="12">
         <v>5</v>
       </c>
@@ -4477,8 +4480,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="12">
         <v>6</v>
       </c>
@@ -4487,8 +4490,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="12">
         <v>7</v>
       </c>
@@ -4497,8 +4500,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="12">
         <v>8</v>
       </c>
@@ -4507,10 +4510,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="60">
+      <c r="A23" s="66">
         <v>5</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="66" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="12">
@@ -4521,8 +4524,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="12">
         <v>2</v>
       </c>
@@ -4531,8 +4534,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="12">
         <v>3</v>
       </c>
@@ -4541,8 +4544,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="12">
         <v>4</v>
       </c>
@@ -4551,8 +4554,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="12">
         <v>5</v>
       </c>
@@ -4561,8 +4564,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="12">
         <v>6</v>
       </c>
@@ -4571,8 +4574,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="12">
         <v>7</v>
       </c>
@@ -4581,8 +4584,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="12">
         <v>8</v>
       </c>
@@ -4591,8 +4594,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="12">
         <v>9</v>
       </c>
@@ -4601,10 +4604,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="60">
+      <c r="A32" s="66">
         <v>6</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="66" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="12">
@@ -4615,8 +4618,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="12">
         <v>2</v>
       </c>
@@ -4625,8 +4628,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="12">
         <v>3</v>
       </c>
@@ -4635,8 +4638,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="12">
         <v>4</v>
       </c>
@@ -4645,8 +4648,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="12">
         <v>5</v>
       </c>
@@ -4655,8 +4658,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="12">
         <v>6</v>
       </c>
@@ -4665,8 +4668,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="12">
         <v>7</v>
       </c>
@@ -4675,8 +4678,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="12">
         <v>8</v>
       </c>
@@ -4685,8 +4688,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="12">
         <v>9</v>
       </c>
@@ -4695,8 +4698,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="12">
         <v>10</v>
       </c>
@@ -4705,8 +4708,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="12">
         <v>11</v>
       </c>
@@ -4715,8 +4718,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="12">
         <v>12</v>
       </c>
@@ -4725,8 +4728,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="12">
         <v>13</v>
       </c>
@@ -4735,8 +4738,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="12">
         <v>14</v>
       </c>
@@ -4745,8 +4748,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="12">
         <v>15</v>
       </c>
@@ -4755,10 +4758,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="60">
+      <c r="A47" s="66">
         <v>7</v>
       </c>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="66" t="s">
         <v>398</v>
       </c>
       <c r="C47" s="12">
@@ -4769,8 +4772,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="12">
         <v>2</v>
       </c>
@@ -4779,8 +4782,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="12">
         <v>3</v>
       </c>
@@ -4789,8 +4792,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="12">
         <v>4</v>
       </c>
@@ -4799,8 +4802,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="12">
         <v>5</v>
       </c>
@@ -4809,8 +4812,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="12">
         <v>6</v>
       </c>
@@ -4819,8 +4822,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="12">
         <v>7</v>
       </c>
@@ -4829,8 +4832,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="60"/>
-      <c r="B54" s="60"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="12">
         <v>8</v>
       </c>
@@ -4839,8 +4842,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="12">
         <v>9</v>
       </c>
@@ -4849,8 +4852,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
-      <c r="B56" s="60"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="66"/>
       <c r="C56" s="12">
         <v>10</v>
       </c>
@@ -4859,8 +4862,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="66"/>
       <c r="C57" s="12">
         <v>11</v>
       </c>
@@ -4869,8 +4872,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
-      <c r="B58" s="60"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="12">
         <v>12</v>
       </c>
@@ -4879,8 +4882,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="66"/>
       <c r="C59" s="12">
         <v>13</v>
       </c>
@@ -4889,8 +4892,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
-      <c r="B60" s="60"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="12">
         <v>14</v>
       </c>
@@ -4899,8 +4902,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="12">
         <v>15</v>
       </c>
@@ -4909,8 +4912,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="66"/>
       <c r="C62" s="12">
         <v>16</v>
       </c>
@@ -4920,12 +4923,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="B32:B46"/>
     <mergeCell ref="A47:A62"/>
     <mergeCell ref="B47:B62"/>
     <mergeCell ref="A4:A11"/>
@@ -4934,6 +4931,12 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="A15:A22"/>
     <mergeCell ref="B15:B22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A32:A46"/>
+    <mergeCell ref="B32:B46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4962,23 +4965,23 @@
       </c>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
-      <c r="D1" s="66"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>446</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
     </row>
     <row r="3" spans="1:4" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
@@ -9643,18 +9646,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
     </row>
     <row r="2" spans="1:3" ht="135.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>435</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -10241,11 +10244,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -10273,7 +10276,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="77" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="20">
@@ -10284,7 +10287,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="22">
         <v>2</v>
       </c>
@@ -10293,7 +10296,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="77"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="23">
         <v>3</v>
       </c>
@@ -10302,7 +10305,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="77"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="24">
         <v>4</v>
       </c>
@@ -10311,7 +10314,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="77"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="24">
         <v>5</v>
       </c>
@@ -10320,7 +10323,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="24">
         <v>6</v>
       </c>
@@ -10356,13 +10359,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -10447,19 +10450,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -10657,17 +10660,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -10952,17 +10955,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -11243,14 +11246,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
